--- a/data/trans_orig/P74B2S1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A36904A0-772F-47AD-9757-35E7C10BF492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF98B37F-E00A-4ED8-9BB3-14F0B31A3997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6AEC3989-71EE-4DDF-B57A-17FE0A43BF74}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B807DCA8-B9E1-4C8A-8FF8-3B3EE9B435F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="337">
   <si>
     <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2007 (Tasa respuesta: 9,37%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>4,64%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -97,7 +97,7 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>2,07%</t>
+    <t>1,85%</t>
   </si>
   <si>
     <t>Invalidez o incapacidad permanente</t>
@@ -106,919 +106,916 @@
     <t>9,06%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>Viudedad</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>Jubilacion</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2012 (Tasa respuesta: 5,59%)</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2015 (Tasa respuesta: 10,4%)</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>Viudedad</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>Jubilacion</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>16,41%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2012 (Tasa respuesta: 5,59%)</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2015 (Tasa respuesta: 10,4%)</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
+    <t>8,02%</t>
   </si>
   <si>
     <t>1,16%</t>
@@ -1030,28 +1027,28 @@
     <t>49,66%</t>
   </si>
   <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
   </si>
   <si>
     <t>91,31%</t>
   </si>
   <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A256E65-60E0-44A6-886A-CB4E50B492F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29563169-7381-45AB-9FAA-7888FA462637}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1847,10 +1844,10 @@
         <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1865,7 +1862,7 @@
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -1874,13 +1871,13 @@
         <v>3020</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1895,13 +1892,13 @@
         <v>4822</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -1910,13 +1907,13 @@
         <v>14491</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -1925,13 +1922,13 @@
         <v>19312</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,7 +1949,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1967,7 +1964,7 @@
         <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1982,7 +1979,7 @@
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,13 +1994,13 @@
         <v>10566</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>70</v>
@@ -2012,13 +2009,13 @@
         <v>73580</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>80</v>
@@ -2027,13 +2024,13 @@
         <v>84146</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,7 +2086,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2107,7 +2104,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2122,7 +2119,7 @@
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2137,7 +2134,7 @@
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,13 +2149,13 @@
         <v>912</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2173,7 +2170,7 @@
         <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -2182,13 +2179,13 @@
         <v>912</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,7 +2206,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2224,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2239,7 +2236,7 @@
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2254,13 +2251,13 @@
         <v>8878</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2269,10 +2266,10 @@
         <v>15757</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>45</v>
@@ -2284,13 +2281,13 @@
         <v>24635</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,13 +2355,13 @@
         <v>6594</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2379,7 +2376,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -2388,13 +2385,13 @@
         <v>6594</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,13 +2406,13 @@
         <v>12714</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -2424,13 +2421,13 @@
         <v>28565</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -2439,13 +2436,13 @@
         <v>41279</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,13 +2457,13 @@
         <v>1706</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2481,7 +2478,7 @@
         <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -2490,13 +2487,13 @@
         <v>1706</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,13 +2508,13 @@
         <v>84216</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>476</v>
@@ -2526,13 +2523,13 @@
         <v>477992</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>562</v>
@@ -2541,13 +2538,13 @@
         <v>562209</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,7 +2600,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2622,7 +2619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BE911B-2942-453D-A81C-E8376668EA61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34253A72-D147-4A8D-BD92-5CCCFD082514}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2639,7 +2636,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2746,13 +2743,13 @@
         <v>10573</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -2761,13 +2758,13 @@
         <v>8419</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -2776,13 +2773,13 @@
         <v>18992</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +2794,13 @@
         <v>7343</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -2812,13 +2809,13 @@
         <v>16597</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -2827,13 +2824,13 @@
         <v>23940</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,7 +2851,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2869,7 +2866,7 @@
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2899,13 +2896,13 @@
         <v>33833</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>189</v>
@@ -2914,13 +2911,13 @@
         <v>202324</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>221</v>
@@ -2929,13 +2926,13 @@
         <v>236157</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,13 +3000,13 @@
         <v>8191</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -3018,13 +3015,13 @@
         <v>14368</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -3033,13 +3030,13 @@
         <v>22559</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,13 +3051,13 @@
         <v>6095</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3069,13 +3066,13 @@
         <v>14634</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3084,13 +3081,13 @@
         <v>20730</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,13 +3102,13 @@
         <v>1949</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3126,7 +3123,7 @@
         <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3135,13 +3132,13 @@
         <v>1949</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3153,13 @@
         <v>9344</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -3171,13 +3168,13 @@
         <v>46577</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M12" s="7">
         <v>52</v>
@@ -3186,13 +3183,13 @@
         <v>55922</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,7 +3245,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3266,7 +3263,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3275,13 +3272,13 @@
         <v>3174</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3290,13 +3287,13 @@
         <v>3174</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,13 +3308,13 @@
         <v>986</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3326,13 +3323,13 @@
         <v>935</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -3341,13 +3338,13 @@
         <v>1921</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,7 +3365,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3383,7 +3380,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3398,7 +3395,7 @@
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3410,13 @@
         <v>3039</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3428,13 +3425,13 @@
         <v>8102</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -3443,13 +3440,13 @@
         <v>11141</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3514,13 @@
         <v>18764</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -3532,13 +3529,13 @@
         <v>25961</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -3547,13 +3544,13 @@
         <v>44725</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3565,13 @@
         <v>14424</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -3583,13 +3580,13 @@
         <v>32166</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -3598,13 +3595,13 @@
         <v>46590</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3616,13 @@
         <v>1949</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3640,7 +3637,7 @@
         <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -3649,13 +3646,13 @@
         <v>1949</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3667,13 @@
         <v>46217</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H22" s="7">
         <v>239</v>
@@ -3685,13 +3682,13 @@
         <v>257003</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M22" s="7">
         <v>282</v>
@@ -3700,13 +3697,13 @@
         <v>303220</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,7 +3759,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +3778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F2C136-0DCE-41F2-AE75-E2E56435FF07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84CE537-D727-4F8A-AF13-C578856B8654}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3798,7 +3795,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3905,13 +3902,13 @@
         <v>28261</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3920,13 +3917,13 @@
         <v>7601</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -3935,13 +3932,13 @@
         <v>35862</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,10 +3953,10 @@
         <v>6257</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>241</v>
@@ -3974,10 +3971,10 @@
         <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -3986,13 +3983,13 @@
         <v>20485</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,7 +4010,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4028,7 +4025,7 @@
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4043,7 +4040,7 @@
         <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4055,13 @@
         <v>41267</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>289</v>
@@ -4073,13 +4070,13 @@
         <v>330298</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>332</v>
@@ -4088,13 +4085,13 @@
         <v>371565</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4159,13 @@
         <v>31437</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -4177,13 +4174,13 @@
         <v>14965</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -4192,13 +4189,13 @@
         <v>46403</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4210,13 @@
         <v>10727</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4228,13 +4225,13 @@
         <v>12257</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -4243,13 +4240,13 @@
         <v>22984</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,7 +4267,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4285,7 +4282,7 @@
         <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4300,7 +4297,7 @@
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4312,13 @@
         <v>28048</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H12" s="7">
         <v>159</v>
@@ -4330,13 +4327,13 @@
         <v>183151</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M12" s="7">
         <v>188</v>
@@ -4345,13 +4342,13 @@
         <v>211199</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,7 +4404,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4419,13 +4416,13 @@
         <v>5419</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4434,13 +4431,13 @@
         <v>1043</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -4449,13 +4446,13 @@
         <v>6462</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4467,13 @@
         <v>1026</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -4485,13 +4482,13 @@
         <v>1080</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -4506,7 +4503,7 @@
         <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,7 +4524,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4542,7 +4539,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4557,7 +4554,7 @@
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4569,13 @@
         <v>12696</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -4587,13 +4584,13 @@
         <v>24102</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -4691,13 +4688,13 @@
         <v>23609</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -4706,13 +4703,13 @@
         <v>88726</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4724,13 @@
         <v>18010</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -4742,13 +4739,13 @@
         <v>27565</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>41</v>
@@ -4757,13 +4754,13 @@
         <v>45575</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,7 +4781,7 @@
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4799,7 +4796,7 @@
         <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4814,7 +4811,7 @@
         <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4826,13 @@
         <v>82010</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H22" s="7">
         <v>468</v>
@@ -4844,13 +4841,13 @@
         <v>537551</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M22" s="7">
         <v>552</v>
@@ -4859,13 +4856,13 @@
         <v>619561</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,7 +4918,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P74B2S1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S1-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF98B37F-E00A-4ED8-9BB3-14F0B31A3997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD6EDFEF-6561-42F6-8DB2-BEE31DAC2A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B807DCA8-B9E1-4C8A-8FF8-3B3EE9B435F6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59B8F05D-69C2-4A4D-8070-31CB308F924B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="332">
   <si>
     <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2007 (Tasa respuesta: 9,37%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>4,64%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -94,10 +94,10 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>Invalidez o incapacidad permanente</t>
@@ -106,28 +106,28 @@
     <t>9,06%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
   </si>
   <si>
     <t>Viudedad</t>
@@ -136,13 +136,13 @@
     <t>2,21%</t>
   </si>
   <si>
-    <t>7,24%</t>
+    <t>7,11%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,26%</t>
+    <t>1,16%</t>
   </si>
   <si>
     <t>Jubilacion</t>
@@ -151,874 +151,862 @@
     <t>84,08%</t>
   </si>
   <si>
-    <t>73,99%</t>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2012 (Tasa respuesta: 5,59%)</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2016 (Tasa respuesta: 10,4%)</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
   </si>
   <si>
     <t>91,91%</t>
   </si>
   <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2012 (Tasa respuesta: 5,59%)</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2015 (Tasa respuesta: 10,4%)</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -1027,28 +1015,25 @@
     <t>49,66%</t>
   </si>
   <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
+    <t>41,45%</t>
   </si>
   <si>
     <t>91,31%</t>
   </si>
   <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29563169-7381-45AB-9FAA-7888FA462637}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B29C505-190A-4A77-A836-5146D592AAE7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1844,10 +1829,10 @@
         <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1862,7 +1847,7 @@
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -1871,13 +1856,13 @@
         <v>3020</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,13 +1877,13 @@
         <v>4822</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -1907,13 +1892,13 @@
         <v>14491</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -1922,13 +1907,13 @@
         <v>19312</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,7 +1934,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1964,7 +1949,7 @@
         <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1979,7 +1964,7 @@
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,13 +1979,13 @@
         <v>10566</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>70</v>
@@ -2009,13 +1994,13 @@
         <v>73580</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>80</v>
@@ -2024,13 +2009,13 @@
         <v>84146</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,7 +2071,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2104,7 +2089,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2119,7 +2104,7 @@
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2134,7 +2119,7 @@
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2134,13 @@
         <v>912</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2170,7 +2155,7 @@
         <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -2179,13 +2164,13 @@
         <v>912</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,7 +2191,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2221,7 +2206,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2236,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,13 +2236,13 @@
         <v>8878</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2266,10 +2251,10 @@
         <v>15757</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>45</v>
@@ -2281,13 +2266,13 @@
         <v>24635</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2340,13 @@
         <v>6594</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2376,7 +2361,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -2385,10 +2370,10 @@
         <v>6594</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>93</v>
@@ -2478,7 +2463,7 @@
         <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -2493,7 +2478,7 @@
         <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2493,13 @@
         <v>84216</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>476</v>
@@ -2523,13 +2508,13 @@
         <v>477992</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>562</v>
@@ -2538,13 +2523,13 @@
         <v>562209</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,7 +2585,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2619,7 +2604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34253A72-D147-4A8D-BD92-5CCCFD082514}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F399EE08-D15D-4FD2-B16E-86C3D579B22E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2636,7 +2621,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2743,13 +2728,13 @@
         <v>10573</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -2758,13 +2743,13 @@
         <v>8419</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -2773,13 +2758,13 @@
         <v>18992</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,13 +2779,13 @@
         <v>7343</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -2809,13 +2794,13 @@
         <v>16597</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -2824,13 +2809,13 @@
         <v>23940</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,7 +2836,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2866,7 +2851,7 @@
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2896,13 +2881,13 @@
         <v>33833</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>189</v>
@@ -2911,13 +2896,13 @@
         <v>202324</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>221</v>
@@ -2926,13 +2911,13 @@
         <v>236157</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +2985,13 @@
         <v>8191</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -3015,13 +3000,13 @@
         <v>14368</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -3030,13 +3015,13 @@
         <v>22559</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3036,13 @@
         <v>6095</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3066,13 +3051,13 @@
         <v>14634</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3081,13 +3066,13 @@
         <v>20730</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3087,13 @@
         <v>1949</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3123,7 +3108,7 @@
         <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3132,13 +3117,13 @@
         <v>1949</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,7 +3230,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3275,10 +3260,10 @@
         <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3287,13 +3272,13 @@
         <v>3174</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3293,13 @@
         <v>986</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3323,13 +3308,13 @@
         <v>935</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -3338,13 +3323,13 @@
         <v>1921</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,7 +3365,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3395,7 +3380,7 @@
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3395,13 @@
         <v>3039</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3425,13 +3410,13 @@
         <v>8102</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -3440,13 +3425,13 @@
         <v>11141</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3499,13 @@
         <v>18764</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -3529,13 +3514,13 @@
         <v>25961</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -3544,13 +3529,13 @@
         <v>44725</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3550,13 @@
         <v>14424</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -3580,13 +3565,13 @@
         <v>32166</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -3595,13 +3580,13 @@
         <v>46590</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3601,13 @@
         <v>1949</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3637,7 +3622,7 @@
         <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -3646,13 +3631,13 @@
         <v>1949</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3652,13 @@
         <v>46217</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7">
         <v>239</v>
@@ -3682,13 +3667,13 @@
         <v>257003</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M22" s="7">
         <v>282</v>
@@ -3697,13 +3682,13 @@
         <v>303220</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,7 +3744,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3778,7 +3763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84CE537-D727-4F8A-AF13-C578856B8654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7AA1C9-8F26-4531-9507-DF7B5390F401}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3795,7 +3780,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3902,13 +3887,13 @@
         <v>28261</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3917,13 +3902,13 @@
         <v>7601</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -3932,13 +3917,13 @@
         <v>35862</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,13 +3938,13 @@
         <v>6257</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3968,13 +3953,13 @@
         <v>14228</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -3983,13 +3968,13 @@
         <v>20485</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,7 +3995,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4025,7 +4010,7 @@
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4040,7 +4025,7 @@
         <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4040,13 @@
         <v>41267</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>289</v>
@@ -4070,13 +4055,13 @@
         <v>330298</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>332</v>
@@ -4085,13 +4070,13 @@
         <v>371565</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4144,13 @@
         <v>31437</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -4174,13 +4159,13 @@
         <v>14965</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>262</v>
+        <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -4189,13 +4174,13 @@
         <v>46403</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4195,13 @@
         <v>10727</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4225,13 +4210,13 @@
         <v>12257</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -4240,13 +4225,13 @@
         <v>22984</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,7 +4252,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4282,7 +4267,7 @@
         <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4297,7 +4282,7 @@
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4297,13 @@
         <v>28048</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H12" s="7">
         <v>159</v>
@@ -4327,13 +4312,13 @@
         <v>183151</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M12" s="7">
         <v>188</v>
@@ -4342,13 +4327,13 @@
         <v>211199</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,7 +4389,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4416,13 +4401,13 @@
         <v>5419</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4431,13 +4416,13 @@
         <v>1043</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -4446,13 +4431,13 @@
         <v>6462</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4452,13 @@
         <v>1026</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -4482,13 +4467,13 @@
         <v>1080</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -4503,7 +4488,7 @@
         <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,7 +4509,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4539,7 +4524,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4554,7 +4539,7 @@
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4554,13 @@
         <v>12696</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -4584,13 +4569,13 @@
         <v>24102</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>38</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -4599,13 +4584,13 @@
         <v>36798</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4658,13 @@
         <v>65117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -4688,13 +4673,13 @@
         <v>23609</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -4703,13 +4688,13 @@
         <v>88726</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4709,13 @@
         <v>18010</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -4739,13 +4724,13 @@
         <v>27565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M20" s="7">
         <v>41</v>
@@ -4754,13 +4739,13 @@
         <v>45575</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,7 +4766,7 @@
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>326</v>
+        <v>34</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4796,7 +4781,7 @@
         <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4826,13 +4811,13 @@
         <v>82010</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="H22" s="7">
         <v>468</v>
@@ -4841,13 +4826,13 @@
         <v>537551</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
         <v>552</v>
@@ -4856,13 +4841,13 @@
         <v>619561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,7 +4903,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
